--- a/experiments/09_power_eval_1/predictor_comp_fullB.xlsx
+++ b/experiments/09_power_eval_1/predictor_comp_fullB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_TEMP2\experiment_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E07E981-EC6A-40AB-BFFD-0F54CA293F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CE6C65-04C7-48BC-8A3C-D5BF9C7028EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{39932099-E81A-42DA-B46C-E67CD6F446DD}"/>
   </bookViews>
@@ -569,13 +569,30 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -617,23 +634,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1141,7 +1143,7 @@
   <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1160,68 +1162,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="55">
         <v>0</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56" t="s">
+      <c r="D1" s="81" t="s">
         <v>2</v>
       </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="74" t="s">
+      <c r="D4" s="79"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="75"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="80"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="65" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="65" t="s">
+      <c r="G5" s="71"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="66" t="s">
+      <c r="J5" s="71"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="68"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="73"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
-      <c r="B6" s="73"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="45" t="s">
         <v>4</v>
       </c>
@@ -1255,7 +1258,7 @@
       <c r="M6" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="62" t="s">
+      <c r="N6" s="61" t="s">
         <v>10</v>
       </c>
       <c r="R6" s="2" t="s">
@@ -1286,7 +1289,7 @@
         <v>2.2433629324846029E-2</v>
       </c>
       <c r="F7" s="17">
-        <f>$C$1+R7</f>
+        <f t="shared" ref="F7:F26" si="0">$C$1+R7</f>
         <v>7.6090996677532399</v>
       </c>
       <c r="G7" s="16">
@@ -1298,7 +1301,7 @@
         <v>5.5414195536750088E-2</v>
       </c>
       <c r="I7" s="17">
-        <f>$C$1+S7</f>
+        <f t="shared" ref="I7:I26" si="1">$C$1+S7</f>
         <v>8.45184821235536</v>
       </c>
       <c r="J7" s="16">
@@ -1310,7 +1313,7 @@
         <v>-4.9203741764927811E-2</v>
       </c>
       <c r="L7" s="16">
-        <f>$C$1+T7</f>
+        <f t="shared" ref="L7:L26" si="2">$C$1+T7</f>
         <v>25.849261353535798</v>
       </c>
       <c r="M7" s="16">
@@ -1345,43 +1348,43 @@
         <v>0.18760700577356218</v>
       </c>
       <c r="E8" s="18">
-        <f t="shared" ref="E8:E26" si="0">D8/C8</f>
+        <f t="shared" ref="E8:E26" si="3">D8/C8</f>
         <v>2.1644871156482927E-2</v>
       </c>
       <c r="F8" s="17">
-        <f>$C$1+R8</f>
+        <f t="shared" si="0"/>
         <v>8.1858603380574202</v>
       </c>
       <c r="G8" s="16">
-        <f t="shared" ref="G8:G25" si="1">$C8-F8</f>
+        <f t="shared" ref="G8:G25" si="4">$C8-F8</f>
         <v>0.48164359011317437</v>
       </c>
       <c r="H8" s="18">
-        <f t="shared" ref="H8:H25" si="2">1-F8/$C8</f>
+        <f t="shared" ref="H8:H25" si="5">1-F8/$C8</f>
         <v>5.556889204835147E-2</v>
       </c>
       <c r="I8" s="17">
-        <f>$C$1+S8</f>
+        <f t="shared" si="1"/>
         <v>8.2107382642578504</v>
       </c>
       <c r="J8" s="16">
-        <f t="shared" ref="J8:J25" si="3">$C8-I8</f>
+        <f t="shared" ref="J8:J25" si="6">$C8-I8</f>
         <v>0.4567656639127442</v>
       </c>
       <c r="K8" s="18">
-        <f t="shared" ref="K8:K25" si="4">1-I8/$C8</f>
+        <f t="shared" ref="K8:K25" si="7">1-I8/$C8</f>
         <v>5.269863938892394E-2</v>
       </c>
       <c r="L8" s="16">
-        <f>$C$1+T8</f>
+        <f t="shared" si="2"/>
         <v>14.422805253679501</v>
       </c>
       <c r="M8" s="16">
-        <f t="shared" ref="M8:M25" si="5">$C8-L8</f>
+        <f t="shared" ref="M8:M25" si="8">$C8-L8</f>
         <v>-5.7553013255089063</v>
       </c>
       <c r="N8" s="19">
-        <f t="shared" ref="N8:N25" si="6">1-L8/$C8</f>
+        <f t="shared" ref="N8:N25" si="9">1-L8/$C8</f>
         <v>-0.66400908187689134</v>
       </c>
       <c r="R8" s="2">
@@ -1408,43 +1411,43 @@
         <v>0.17484240700075782</v>
       </c>
       <c r="E9" s="18">
+        <f t="shared" si="3"/>
+        <v>2.346043873039166E-2</v>
+      </c>
+      <c r="F9" s="17">
         <f t="shared" si="0"/>
-        <v>2.346043873039166E-2</v>
-      </c>
-      <c r="F9" s="17">
-        <f>$C$1+R9</f>
         <v>7.3141584873530698</v>
       </c>
       <c r="G9" s="16">
+        <f t="shared" si="4"/>
+        <v>0.13849016129557867</v>
+      </c>
+      <c r="H9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.8582676820634858E-2</v>
+      </c>
+      <c r="I9" s="17">
         <f t="shared" si="1"/>
-        <v>0.13849016129557867</v>
-      </c>
-      <c r="H9" s="18">
+        <v>8.2216028844455202</v>
+      </c>
+      <c r="J9" s="16">
+        <f t="shared" si="6"/>
+        <v>-0.76895423579687172</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="shared" si="7"/>
+        <v>-0.10317865124854664</v>
+      </c>
+      <c r="L9" s="16">
         <f t="shared" si="2"/>
-        <v>1.8582676820634858E-2</v>
-      </c>
-      <c r="I9" s="17">
-        <f>$C$1+S9</f>
-        <v>8.2216028844455202</v>
-      </c>
-      <c r="J9" s="16">
-        <f t="shared" si="3"/>
-        <v>-0.76895423579687172</v>
-      </c>
-      <c r="K9" s="18">
-        <f t="shared" si="4"/>
-        <v>-0.10317865124854664</v>
-      </c>
-      <c r="L9" s="16">
-        <f>$C$1+T9</f>
         <v>25.001661002936299</v>
       </c>
       <c r="M9" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-17.549012354287651</v>
       </c>
       <c r="N9" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.3547349649268283</v>
       </c>
       <c r="R9" s="2">
@@ -1471,43 +1474,43 @@
         <v>0.30965242196380238</v>
       </c>
       <c r="E10" s="18">
-        <f t="shared" ref="E10" si="7">D10/C10</f>
+        <f t="shared" ref="E10" si="10">D10/C10</f>
         <v>4.001371835132507E-2</v>
       </c>
       <c r="F10" s="17">
-        <f>$C$1+R10</f>
+        <f t="shared" si="0"/>
         <v>7.3546052218128297</v>
       </c>
       <c r="G10" s="16">
-        <f t="shared" ref="G10" si="8">$C10-F10</f>
+        <f t="shared" ref="G10" si="11">$C10-F10</f>
         <v>0.38405128706290981</v>
       </c>
       <c r="H10" s="18">
-        <f t="shared" ref="H10" si="9">1-F10/$C10</f>
+        <f t="shared" ref="H10" si="12">1-F10/$C10</f>
         <v>4.96276435867683E-2</v>
       </c>
       <c r="I10" s="17">
-        <f>$C$1+S10</f>
+        <f t="shared" si="1"/>
         <v>7.8754020399594902</v>
       </c>
       <c r="J10" s="16">
-        <f t="shared" ref="J10" si="10">$C10-I10</f>
+        <f t="shared" ref="J10" si="13">$C10-I10</f>
         <v>-0.13674553108375065</v>
       </c>
       <c r="K10" s="18">
-        <f t="shared" ref="K10" si="11">1-I10/$C10</f>
+        <f t="shared" ref="K10" si="14">1-I10/$C10</f>
         <v>-1.7670448472149269E-2</v>
       </c>
       <c r="L10" s="16">
-        <f>$C$1+T10</f>
+        <f t="shared" si="2"/>
         <v>24.9608439960104</v>
       </c>
       <c r="M10" s="16">
-        <f t="shared" ref="M10" si="12">$C10-L10</f>
+        <f t="shared" ref="M10" si="15">$C10-L10</f>
         <v>-17.222187487134661</v>
       </c>
       <c r="N10" s="19">
-        <f t="shared" ref="N10" si="13">1-L10/$C10</f>
+        <f t="shared" ref="N10" si="16">1-L10/$C10</f>
         <v>-2.2254751154004473</v>
       </c>
       <c r="R10" s="2">
@@ -1534,43 +1537,43 @@
         <v>0.1491626477531128</v>
       </c>
       <c r="E11" s="23">
+        <f t="shared" si="3"/>
+        <v>1.8246063577023967E-2</v>
+      </c>
+      <c r="F11" s="22">
         <f t="shared" si="0"/>
-        <v>1.8246063577023967E-2</v>
-      </c>
-      <c r="F11" s="22">
-        <f>$C$1+R11</f>
         <v>7.7393569876470698</v>
       </c>
       <c r="G11" s="21">
+        <f t="shared" si="4"/>
+        <v>0.43570209418925732</v>
+      </c>
+      <c r="H11" s="23">
+        <f t="shared" si="5"/>
+        <v>5.3296507074464761E-2</v>
+      </c>
+      <c r="I11" s="22">
         <f t="shared" si="1"/>
-        <v>0.43570209418925732</v>
-      </c>
-      <c r="H11" s="23">
+        <v>8.4291414081225398</v>
+      </c>
+      <c r="J11" s="21">
+        <f t="shared" si="6"/>
+        <v>-0.25408232628621263</v>
+      </c>
+      <c r="K11" s="23">
+        <f t="shared" si="7"/>
+        <v>-3.1080182264461298E-2</v>
+      </c>
+      <c r="L11" s="21">
         <f t="shared" si="2"/>
-        <v>5.3296507074464761E-2</v>
-      </c>
-      <c r="I11" s="22">
-        <f>$C$1+S11</f>
-        <v>8.4291414081225398</v>
-      </c>
-      <c r="J11" s="21">
-        <f t="shared" si="3"/>
-        <v>-0.25408232628621263</v>
-      </c>
-      <c r="K11" s="23">
-        <f t="shared" si="4"/>
-        <v>-3.1080182264461298E-2</v>
-      </c>
-      <c r="L11" s="21">
-        <f>$C$1+T11</f>
         <v>26.282064849301499</v>
       </c>
       <c r="M11" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-18.107005767465171</v>
       </c>
       <c r="N11" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.214908245457949</v>
       </c>
       <c r="R11" s="2">
@@ -1597,43 +1600,43 @@
         <v>0.15696522303890859</v>
       </c>
       <c r="E12" s="23">
+        <f t="shared" si="3"/>
+        <v>1.7591956298202146E-2</v>
+      </c>
+      <c r="F12" s="22">
         <f t="shared" si="0"/>
-        <v>1.7591956298202146E-2</v>
-      </c>
-      <c r="F12" s="22">
-        <f>$C$1+R12</f>
         <v>8.0622926516646505</v>
       </c>
       <c r="G12" s="21">
+        <f t="shared" si="4"/>
+        <v>0.86026379277979359</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" si="5"/>
+        <v>9.6414497138365474E-2</v>
+      </c>
+      <c r="I12" s="22">
         <f t="shared" si="1"/>
-        <v>0.86026379277979359</v>
-      </c>
-      <c r="H12" s="23">
+        <v>8.1601325585459996</v>
+      </c>
+      <c r="J12" s="21">
+        <f t="shared" si="6"/>
+        <v>0.76242388589844445</v>
+      </c>
+      <c r="K12" s="23">
+        <f t="shared" si="7"/>
+        <v>8.5449040378238417E-2</v>
+      </c>
+      <c r="L12" s="21">
         <f t="shared" si="2"/>
-        <v>9.6414497138365474E-2</v>
-      </c>
-      <c r="I12" s="22">
-        <f>$C$1+S12</f>
-        <v>8.1601325585459996</v>
-      </c>
-      <c r="J12" s="21">
-        <f t="shared" si="3"/>
-        <v>0.76242388589844445</v>
-      </c>
-      <c r="K12" s="23">
-        <f t="shared" si="4"/>
-        <v>8.5449040378238417E-2</v>
-      </c>
-      <c r="L12" s="21">
-        <f>$C$1+T12</f>
         <v>15.4421555009176</v>
       </c>
       <c r="M12" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-6.5195990564731563</v>
       </c>
       <c r="N12" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-0.73068734247487233</v>
       </c>
       <c r="R12" s="2">
@@ -1660,43 +1663,43 @@
         <v>0.28140906830485357</v>
       </c>
       <c r="E13" s="23">
+        <f t="shared" si="3"/>
+        <v>3.6032428200792548E-2</v>
+      </c>
+      <c r="F13" s="22">
         <f t="shared" si="0"/>
-        <v>3.6032428200792548E-2</v>
-      </c>
-      <c r="F13" s="22">
-        <f>$C$1+R13</f>
         <v>7.2145660471214503</v>
       </c>
       <c r="G13" s="21">
+        <f t="shared" si="4"/>
+        <v>0.59531750379238701</v>
+      </c>
+      <c r="H13" s="23">
+        <f t="shared" si="5"/>
+        <v>7.6226169047389769E-2</v>
+      </c>
+      <c r="I13" s="22">
         <f t="shared" si="1"/>
-        <v>0.59531750379238701</v>
-      </c>
-      <c r="H13" s="23">
+        <v>8.0913676342947607</v>
+      </c>
+      <c r="J13" s="21">
+        <f t="shared" si="6"/>
+        <v>-0.28148408338092334</v>
+      </c>
+      <c r="K13" s="23">
+        <f t="shared" si="7"/>
+        <v>-3.6042033347345681E-2</v>
+      </c>
+      <c r="L13" s="21">
         <f t="shared" si="2"/>
-        <v>7.6226169047389769E-2</v>
-      </c>
-      <c r="I13" s="22">
-        <f>$C$1+S13</f>
-        <v>8.0913676342947607</v>
-      </c>
-      <c r="J13" s="21">
-        <f t="shared" si="3"/>
-        <v>-0.28148408338092334</v>
-      </c>
-      <c r="K13" s="23">
-        <f t="shared" si="4"/>
-        <v>-3.6042033347345681E-2</v>
-      </c>
-      <c r="L13" s="21">
-        <f>$C$1+T13</f>
         <v>24.952344990849301</v>
       </c>
       <c r="M13" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-17.142461439935463</v>
       </c>
       <c r="N13" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.1949701718573791</v>
       </c>
       <c r="R13" s="2">
@@ -1723,43 +1726,43 @@
         <v>0.4134573880918902</v>
       </c>
       <c r="E14" s="23">
-        <f t="shared" ref="E14" si="14">D14/C14</f>
+        <f t="shared" ref="E14" si="17">D14/C14</f>
         <v>5.135599980577072E-2</v>
       </c>
       <c r="F14" s="22">
-        <f>$C$1+R14</f>
+        <f t="shared" si="0"/>
         <v>7.4006336723799704</v>
       </c>
       <c r="G14" s="21">
-        <f t="shared" ref="G14" si="15">$C14-F14</f>
+        <f t="shared" ref="G14" si="18">$C14-F14</f>
         <v>0.65017615812850327</v>
       </c>
       <c r="H14" s="23">
-        <f t="shared" ref="H14" si="16">1-F14/$C14</f>
+        <f t="shared" ref="H14" si="19">1-F14/$C14</f>
         <v>8.0759100241651005E-2</v>
       </c>
       <c r="I14" s="22">
-        <f>$C$1+S14</f>
+        <f t="shared" si="1"/>
         <v>8.0040142680451094</v>
       </c>
       <c r="J14" s="21">
-        <f t="shared" ref="J14" si="17">$C14-I14</f>
+        <f t="shared" ref="J14" si="20">$C14-I14</f>
         <v>4.6795562463364249E-2</v>
       </c>
       <c r="K14" s="23">
-        <f t="shared" ref="K14" si="18">1-I14/$C14</f>
+        <f t="shared" ref="K14" si="21">1-I14/$C14</f>
         <v>5.812528608741041E-3</v>
       </c>
       <c r="L14" s="21">
-        <f>$C$1+T14</f>
+        <f t="shared" si="2"/>
         <v>25.155884830480801</v>
       </c>
       <c r="M14" s="21">
-        <f t="shared" ref="M14" si="19">$C14-L14</f>
+        <f t="shared" ref="M14" si="22">$C14-L14</f>
         <v>-17.105074999972327</v>
       </c>
       <c r="N14" s="24">
-        <f t="shared" ref="N14" si="20">1-L14/$C14</f>
+        <f t="shared" ref="N14" si="23">1-L14/$C14</f>
         <v>-2.1246402983154309</v>
       </c>
       <c r="R14" s="2">
@@ -1786,43 +1789,43 @@
         <v>0.30290167558805503</v>
       </c>
       <c r="E15" s="28">
+        <f t="shared" si="3"/>
+        <v>3.7000585784798735E-2</v>
+      </c>
+      <c r="F15" s="27">
         <f t="shared" si="0"/>
-        <v>3.7000585784798735E-2</v>
-      </c>
-      <c r="F15" s="27">
-        <f>$C$1+R15</f>
         <v>7.8150361270935704</v>
       </c>
       <c r="G15" s="26">
+        <f t="shared" si="4"/>
+        <v>0.37136603826075998</v>
+      </c>
+      <c r="H15" s="28">
+        <f t="shared" si="5"/>
+        <v>4.5363766738997779E-2</v>
+      </c>
+      <c r="I15" s="27">
         <f t="shared" si="1"/>
-        <v>0.37136603826075998</v>
-      </c>
-      <c r="H15" s="28">
+        <v>8.8092646757671993</v>
+      </c>
+      <c r="J15" s="26">
+        <f t="shared" si="6"/>
+        <v>-0.62286251041286889</v>
+      </c>
+      <c r="K15" s="28">
+        <f t="shared" si="7"/>
+        <v>-7.6085012418383835E-2</v>
+      </c>
+      <c r="L15" s="26">
         <f t="shared" si="2"/>
-        <v>4.5363766738997779E-2</v>
-      </c>
-      <c r="I15" s="27">
-        <f>$C$1+S15</f>
-        <v>8.8092646757671993</v>
-      </c>
-      <c r="J15" s="26">
-        <f t="shared" si="3"/>
-        <v>-0.62286251041286889</v>
-      </c>
-      <c r="K15" s="28">
-        <f t="shared" si="4"/>
-        <v>-7.6085012418383835E-2</v>
-      </c>
-      <c r="L15" s="26">
-        <f>$C$1+T15</f>
         <v>25.726910740467702</v>
       </c>
       <c r="M15" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-17.540508575113371</v>
       </c>
       <c r="N15" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.142639491783894</v>
       </c>
       <c r="R15" s="2">
@@ -1849,43 +1852,43 @@
         <v>0.24958836271839085</v>
       </c>
       <c r="E16" s="28">
+        <f t="shared" si="3"/>
+        <v>2.7759101588106443E-2</v>
+      </c>
+      <c r="F16" s="27">
         <f t="shared" si="0"/>
-        <v>2.7759101588106443E-2</v>
-      </c>
-      <c r="F16" s="27">
-        <f>$C$1+R16</f>
         <v>8.3869748464646392</v>
       </c>
       <c r="G16" s="26">
+        <f t="shared" si="4"/>
+        <v>0.60425139787925275</v>
+      </c>
+      <c r="H16" s="28">
+        <f t="shared" si="5"/>
+        <v>6.7204559362452843E-2</v>
+      </c>
+      <c r="I16" s="27">
         <f t="shared" si="1"/>
-        <v>0.60425139787925275</v>
-      </c>
-      <c r="H16" s="28">
+        <v>8.9442416297604197</v>
+      </c>
+      <c r="J16" s="26">
+        <f t="shared" si="6"/>
+        <v>4.6984614583472251E-2</v>
+      </c>
+      <c r="K16" s="28">
+        <f t="shared" si="7"/>
+        <v>5.2256069758036539E-3</v>
+      </c>
+      <c r="L16" s="26">
         <f t="shared" si="2"/>
-        <v>6.7204559362452843E-2</v>
-      </c>
-      <c r="I16" s="27">
-        <f>$C$1+S16</f>
-        <v>8.9442416297604197</v>
-      </c>
-      <c r="J16" s="26">
-        <f t="shared" si="3"/>
-        <v>4.6984614583472251E-2</v>
-      </c>
-      <c r="K16" s="28">
-        <f t="shared" si="4"/>
-        <v>5.2256069758036539E-3</v>
-      </c>
-      <c r="L16" s="26">
-        <f>$C$1+T16</f>
         <v>17.2190232756362</v>
       </c>
       <c r="M16" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-8.2277970312923081</v>
       </c>
       <c r="N16" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-0.91509175808674215</v>
       </c>
       <c r="R16" s="2">
@@ -1912,43 +1915,43 @@
         <v>0.20398054945489216</v>
       </c>
       <c r="E17" s="28">
+        <f t="shared" si="3"/>
+        <v>2.4905916117121178E-2</v>
+      </c>
+      <c r="F17" s="27">
         <f t="shared" si="0"/>
-        <v>2.4905916117121178E-2</v>
-      </c>
-      <c r="F17" s="27">
-        <f>$C$1+R17</f>
         <v>7.4538301572816099</v>
       </c>
       <c r="G17" s="26">
+        <f t="shared" si="4"/>
+        <v>0.73621386662277288</v>
+      </c>
+      <c r="H17" s="28">
+        <f t="shared" si="5"/>
+        <v>8.9891319811465809E-2</v>
+      </c>
+      <c r="I17" s="27">
         <f t="shared" si="1"/>
-        <v>0.73621386662277288</v>
-      </c>
-      <c r="H17" s="28">
+        <v>7.7229551433846204</v>
+      </c>
+      <c r="J17" s="26">
+        <f t="shared" si="6"/>
+        <v>0.46708888051976238</v>
+      </c>
+      <c r="K17" s="28">
+        <f t="shared" si="7"/>
+        <v>5.7031302781336057E-2</v>
+      </c>
+      <c r="L17" s="26">
         <f t="shared" si="2"/>
-        <v>8.9891319811465809E-2</v>
-      </c>
-      <c r="I17" s="27">
-        <f>$C$1+S17</f>
-        <v>7.7229551433846204</v>
-      </c>
-      <c r="J17" s="26">
-        <f t="shared" si="3"/>
-        <v>0.46708888051976238</v>
-      </c>
-      <c r="K17" s="28">
-        <f t="shared" si="4"/>
-        <v>5.7031302781336057E-2</v>
-      </c>
-      <c r="L17" s="26">
-        <f>$C$1+T17</f>
         <v>24.462194188107802</v>
       </c>
       <c r="M17" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-16.272150164203417</v>
       </c>
       <c r="N17" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1.9868208420748035</v>
       </c>
       <c r="R17" s="2">
@@ -1975,43 +1978,43 @@
         <v>0.33652739631399425</v>
       </c>
       <c r="E18" s="28">
+        <f t="shared" si="3"/>
+        <v>4.1028978747615116E-2</v>
+      </c>
+      <c r="F18" s="27">
         <f t="shared" si="0"/>
-        <v>4.1028978747615116E-2</v>
-      </c>
-      <c r="F18" s="27">
-        <f>$C$1+R18</f>
         <v>7.5822673848545596</v>
       </c>
       <c r="G18" s="26">
-        <f t="shared" ref="G18" si="21">$C18-F18</f>
+        <f t="shared" ref="G18" si="24">$C18-F18</f>
         <v>0.61992059511205166</v>
       </c>
       <c r="H18" s="28">
-        <f t="shared" ref="H18" si="22">1-F18/$C18</f>
+        <f t="shared" ref="H18" si="25">1-F18/$C18</f>
         <v>7.5579905828319638E-2</v>
       </c>
       <c r="I18" s="27">
-        <f>$C$1+S18</f>
+        <f t="shared" si="1"/>
         <v>7.7291535815361501</v>
       </c>
       <c r="J18" s="26">
-        <f t="shared" ref="J18" si="23">$C18-I18</f>
+        <f t="shared" ref="J18" si="26">$C18-I18</f>
         <v>0.47303439843046124</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" ref="K18" si="24">1-I18/$C18</f>
+        <f t="shared" ref="K18" si="27">1-I18/$C18</f>
         <v>5.7671733394287217E-2</v>
       </c>
       <c r="L18" s="26">
-        <f>$C$1+T18</f>
+        <f t="shared" si="2"/>
         <v>24.711052620694801</v>
       </c>
       <c r="M18" s="26">
-        <f t="shared" ref="M18" si="25">$C18-L18</f>
+        <f t="shared" ref="M18" si="28">$C18-L18</f>
         <v>-16.508864640728191</v>
       </c>
       <c r="N18" s="29">
-        <f t="shared" ref="N18" si="26">1-L18/$C18</f>
+        <f t="shared" ref="N18" si="29">1-L18/$C18</f>
         <v>-2.0127391229084455</v>
       </c>
       <c r="R18" s="2">
@@ -2038,43 +2041,43 @@
         <v>0.2783420640340748</v>
       </c>
       <c r="E19" s="33">
+        <f t="shared" si="3"/>
+        <v>3.7295840713011501E-2</v>
+      </c>
+      <c r="F19" s="32">
         <f t="shared" si="0"/>
-        <v>3.7295840713011501E-2</v>
-      </c>
-      <c r="F19" s="32">
-        <f>$C$1+R19</f>
         <v>7.8253951255228102</v>
       </c>
       <c r="G19" s="31">
+        <f t="shared" si="4"/>
+        <v>-0.36230919656106231</v>
+      </c>
+      <c r="H19" s="33">
+        <f t="shared" si="5"/>
+        <v>-4.8546834380542414E-2</v>
+      </c>
+      <c r="I19" s="32">
         <f t="shared" si="1"/>
-        <v>-0.36230919656106231</v>
-      </c>
-      <c r="H19" s="33">
+        <v>8.3695961642511207</v>
+      </c>
+      <c r="J19" s="31">
+        <f t="shared" si="6"/>
+        <v>-0.9065102352893728</v>
+      </c>
+      <c r="K19" s="33">
+        <f t="shared" si="7"/>
+        <v>-0.12146587134572706</v>
+      </c>
+      <c r="L19" s="31">
         <f t="shared" si="2"/>
-        <v>-4.8546834380542414E-2</v>
-      </c>
-      <c r="I19" s="32">
-        <f>$C$1+S19</f>
-        <v>8.3695961642511207</v>
-      </c>
-      <c r="J19" s="31">
-        <f t="shared" si="3"/>
-        <v>-0.9065102352893728</v>
-      </c>
-      <c r="K19" s="33">
-        <f t="shared" si="4"/>
-        <v>-0.12146587134572706</v>
-      </c>
-      <c r="L19" s="31">
-        <f>$C$1+T19</f>
         <v>25.188124562123399</v>
       </c>
       <c r="M19" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-17.725038633161653</v>
       </c>
       <c r="N19" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.3750280784489815</v>
       </c>
       <c r="R19" s="2">
@@ -2101,43 +2104,43 @@
         <v>0.20731566300858609</v>
       </c>
       <c r="E20" s="33">
+        <f t="shared" si="3"/>
+        <v>2.5447796603740549E-2</v>
+      </c>
+      <c r="F20" s="32">
         <f t="shared" si="0"/>
-        <v>2.5447796603740549E-2</v>
-      </c>
-      <c r="F20" s="32">
-        <f>$C$1+R20</f>
         <v>7.8878375753427399</v>
       </c>
       <c r="G20" s="31">
+        <f t="shared" si="4"/>
+        <v>0.25886629206057599</v>
+      </c>
+      <c r="H20" s="33">
+        <f t="shared" si="5"/>
+        <v>3.177558633208144E-2</v>
+      </c>
+      <c r="I20" s="32">
         <f t="shared" si="1"/>
-        <v>0.25886629206057599</v>
-      </c>
-      <c r="H20" s="33">
+        <v>7.8041611935697901</v>
+      </c>
+      <c r="J20" s="31">
+        <f t="shared" si="6"/>
+        <v>0.34254267383352577</v>
+      </c>
+      <c r="K20" s="33">
+        <f t="shared" si="7"/>
+        <v>4.2046781055110061E-2</v>
+      </c>
+      <c r="L20" s="31">
         <f t="shared" si="2"/>
-        <v>3.177558633208144E-2</v>
-      </c>
-      <c r="I20" s="32">
-        <f>$C$1+S20</f>
-        <v>7.8041611935697901</v>
-      </c>
-      <c r="J20" s="31">
-        <f t="shared" si="3"/>
-        <v>0.34254267383352577</v>
-      </c>
-      <c r="K20" s="33">
-        <f t="shared" si="4"/>
-        <v>4.2046781055110061E-2</v>
-      </c>
-      <c r="L20" s="31">
-        <f>$C$1+T20</f>
         <v>13.7970425528035</v>
       </c>
       <c r="M20" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-5.6503386854001842</v>
       </c>
       <c r="N20" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-0.69357359459307011</v>
       </c>
       <c r="R20" s="2">
@@ -2164,43 +2167,43 @@
         <v>0.27489160416221231</v>
       </c>
       <c r="E21" s="33">
+        <f t="shared" si="3"/>
+        <v>3.7987320145865429E-2</v>
+      </c>
+      <c r="F21" s="32">
         <f t="shared" si="0"/>
-        <v>3.7987320145865429E-2</v>
-      </c>
-      <c r="F21" s="32">
-        <f>$C$1+R21</f>
         <v>7.1729641293938302</v>
       </c>
       <c r="G21" s="31">
+        <f t="shared" si="4"/>
+        <v>6.3440099877176692E-2</v>
+      </c>
+      <c r="H21" s="33">
+        <f t="shared" si="5"/>
+        <v>8.7667987949821002E-3</v>
+      </c>
+      <c r="I21" s="32">
         <f t="shared" si="1"/>
-        <v>6.3440099877176692E-2</v>
-      </c>
-      <c r="H21" s="33">
+        <v>7.7169749226822804</v>
+      </c>
+      <c r="J21" s="31">
+        <f t="shared" si="6"/>
+        <v>-0.48057069341127345</v>
+      </c>
+      <c r="K21" s="33">
+        <f t="shared" si="7"/>
+        <v>-6.6410150426282399E-2</v>
+      </c>
+      <c r="L21" s="31">
         <f t="shared" si="2"/>
-        <v>8.7667987949821002E-3</v>
-      </c>
-      <c r="I21" s="32">
-        <f>$C$1+S21</f>
-        <v>7.7169749226822804</v>
-      </c>
-      <c r="J21" s="31">
-        <f t="shared" si="3"/>
-        <v>-0.48057069341127345</v>
-      </c>
-      <c r="K21" s="33">
-        <f t="shared" si="4"/>
-        <v>-6.6410150426282399E-2</v>
-      </c>
-      <c r="L21" s="31">
-        <f>$C$1+T21</f>
         <v>24.153073114033798</v>
       </c>
       <c r="M21" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-16.916668884762792</v>
       </c>
       <c r="N21" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.3377175111826185</v>
       </c>
       <c r="R21" s="2">
@@ -2227,43 +2230,43 @@
         <v>0.3752050982843535</v>
       </c>
       <c r="E22" s="33">
+        <f t="shared" si="3"/>
+        <v>4.8673973028153093E-2</v>
+      </c>
+      <c r="F22" s="32">
         <f t="shared" si="0"/>
-        <v>4.8673973028153093E-2</v>
-      </c>
-      <c r="F22" s="32">
-        <f>$C$1+R22</f>
         <v>7.1527119147727003</v>
       </c>
       <c r="G22" s="31">
-        <f t="shared" ref="G22" si="27">$C22-F22</f>
+        <f t="shared" ref="G22" si="30">$C22-F22</f>
         <v>0.55582459748888002</v>
       </c>
       <c r="H22" s="33">
-        <f t="shared" ref="H22" si="28">1-F22/$C22</f>
+        <f t="shared" ref="H22" si="31">1-F22/$C22</f>
         <v>7.2105074238768663E-2</v>
       </c>
       <c r="I22" s="32">
-        <f>$C$1+S22</f>
+        <f t="shared" si="1"/>
         <v>7.5185564868793904</v>
       </c>
       <c r="J22" s="31">
-        <f t="shared" ref="J22" si="29">$C22-I22</f>
+        <f t="shared" ref="J22" si="32">$C22-I22</f>
         <v>0.18998002538218994</v>
       </c>
       <c r="K22" s="33">
-        <f t="shared" ref="K22" si="30">1-I22/$C22</f>
+        <f t="shared" ref="K22" si="33">1-I22/$C22</f>
         <v>2.464540773465862E-2</v>
       </c>
       <c r="L22" s="31">
-        <f>$C$1+T22</f>
+        <f t="shared" si="2"/>
         <v>23.801089916410501</v>
       </c>
       <c r="M22" s="31">
-        <f t="shared" ref="M22" si="31">$C22-L22</f>
+        <f t="shared" ref="M22" si="34">$C22-L22</f>
         <v>-16.092553404148919</v>
       </c>
       <c r="N22" s="34">
-        <f t="shared" ref="N22" si="32">1-L22/$C22</f>
+        <f t="shared" ref="N22" si="35">1-L22/$C22</f>
         <v>-2.0876275773684547</v>
       </c>
       <c r="R22" s="2">
@@ -2290,43 +2293,43 @@
         <v>0.25509964109722122</v>
       </c>
       <c r="E23" s="38">
+        <f t="shared" si="3"/>
+        <v>3.1113364811907948E-2</v>
+      </c>
+      <c r="F23" s="37">
         <f t="shared" si="0"/>
-        <v>3.1113364811907948E-2</v>
-      </c>
-      <c r="F23" s="37">
-        <f>$C$1+R23</f>
         <v>7.9651312980635698</v>
       </c>
       <c r="G23" s="36">
+        <f t="shared" si="4"/>
+        <v>0.23390608151253822</v>
+      </c>
+      <c r="H23" s="38">
+        <f t="shared" si="5"/>
+        <v>2.8528480928163735E-2</v>
+      </c>
+      <c r="I23" s="37">
         <f t="shared" si="1"/>
-        <v>0.23390608151253822</v>
-      </c>
-      <c r="H23" s="38">
+        <v>9.1948633450678798</v>
+      </c>
+      <c r="J23" s="36">
+        <f t="shared" si="6"/>
+        <v>-0.99582596549177183</v>
+      </c>
+      <c r="K23" s="38">
+        <f t="shared" si="7"/>
+        <v>-0.12145644901831831</v>
+      </c>
+      <c r="L23" s="36">
         <f t="shared" si="2"/>
-        <v>2.8528480928163735E-2</v>
-      </c>
-      <c r="I23" s="37">
-        <f>$C$1+S23</f>
-        <v>9.1948633450678798</v>
-      </c>
-      <c r="J23" s="36">
-        <f t="shared" si="3"/>
-        <v>-0.99582596549177183</v>
-      </c>
-      <c r="K23" s="38">
-        <f t="shared" si="4"/>
-        <v>-0.12145644901831831</v>
-      </c>
-      <c r="L23" s="36">
-        <f>$C$1+T23</f>
         <v>26.884842980188299</v>
       </c>
       <c r="M23" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-18.685805600612191</v>
       </c>
       <c r="N23" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.279024321459826</v>
       </c>
       <c r="R23" s="2">
@@ -2353,43 +2356,43 @@
         <v>0.18190417941925968</v>
       </c>
       <c r="E24" s="38">
+        <f t="shared" si="3"/>
+        <v>2.1395958314900248E-2</v>
+      </c>
+      <c r="F24" s="37">
         <f t="shared" si="0"/>
-        <v>2.1395958314900248E-2</v>
-      </c>
-      <c r="F24" s="37">
-        <f>$C$1+R24</f>
         <v>8.4069323152024609</v>
       </c>
       <c r="G24" s="36">
+        <f t="shared" si="4"/>
+        <v>9.4868667115809657E-2</v>
+      </c>
+      <c r="H24" s="38">
+        <f t="shared" si="5"/>
+        <v>1.1158655361742098E-2</v>
+      </c>
+      <c r="I24" s="37">
         <f t="shared" si="1"/>
-        <v>9.4868667115809657E-2</v>
-      </c>
-      <c r="H24" s="38">
+        <v>8.7049530505416506</v>
+      </c>
+      <c r="J24" s="36">
+        <f t="shared" si="6"/>
+        <v>-0.20315206822338006</v>
+      </c>
+      <c r="K24" s="38">
+        <f t="shared" si="7"/>
+        <v>-2.3895180403056715E-2</v>
+      </c>
+      <c r="L24" s="36">
         <f t="shared" si="2"/>
-        <v>1.1158655361742098E-2</v>
-      </c>
-      <c r="I24" s="37">
-        <f>$C$1+S24</f>
-        <v>8.7049530505416506</v>
-      </c>
-      <c r="J24" s="36">
-        <f t="shared" si="3"/>
-        <v>-0.20315206822338006</v>
-      </c>
-      <c r="K24" s="38">
-        <f t="shared" si="4"/>
-        <v>-2.3895180403056715E-2</v>
-      </c>
-      <c r="L24" s="36">
-        <f>$C$1+T24</f>
         <v>17.402233436555601</v>
       </c>
       <c r="M24" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-8.9004324542373308</v>
       </c>
       <c r="N24" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1.0468878856077812</v>
       </c>
       <c r="R24" s="2">
@@ -2416,43 +2419,43 @@
         <v>0.2954154330728892</v>
       </c>
       <c r="E25" s="38">
+        <f t="shared" si="3"/>
+        <v>3.6491369784425812E-2</v>
+      </c>
+      <c r="F25" s="37">
         <f t="shared" si="0"/>
-        <v>3.6491369784425812E-2</v>
-      </c>
-      <c r="F25" s="37">
-        <f>$C$1+R25</f>
         <v>7.4366134873589003</v>
       </c>
       <c r="G25" s="36">
+        <f t="shared" si="4"/>
+        <v>0.65887415309053754</v>
+      </c>
+      <c r="H25" s="38">
+        <f t="shared" si="5"/>
+        <v>8.1387827682973146E-2</v>
+      </c>
+      <c r="I25" s="37">
         <f t="shared" si="1"/>
-        <v>0.65887415309053754</v>
-      </c>
-      <c r="H25" s="38">
+        <v>7.7554425884133504</v>
+      </c>
+      <c r="J25" s="36">
+        <f t="shared" si="6"/>
+        <v>0.34004505203608737</v>
+      </c>
+      <c r="K25" s="38">
+        <f t="shared" si="7"/>
+        <v>4.2004270420602952E-2</v>
+      </c>
+      <c r="L25" s="36">
         <f t="shared" si="2"/>
-        <v>8.1387827682973146E-2</v>
-      </c>
-      <c r="I25" s="37">
-        <f>$C$1+S25</f>
-        <v>7.7554425884133504</v>
-      </c>
-      <c r="J25" s="36">
-        <f t="shared" si="3"/>
-        <v>0.34004505203608737</v>
-      </c>
-      <c r="K25" s="38">
-        <f t="shared" si="4"/>
-        <v>4.2004270420602952E-2</v>
-      </c>
-      <c r="L25" s="36">
-        <f>$C$1+T25</f>
         <v>23.974949017236298</v>
       </c>
       <c r="M25" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-15.87946137678686</v>
       </c>
       <c r="N25" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1.9615200568579065</v>
       </c>
       <c r="R25" s="2">
@@ -2479,43 +2482,43 @@
         <v>0.3111203682459977</v>
       </c>
       <c r="E26" s="43">
+        <f t="shared" si="3"/>
+        <v>3.6518791718908664E-2</v>
+      </c>
+      <c r="F26" s="42">
         <f t="shared" si="0"/>
-        <v>3.6518791718908664E-2</v>
-      </c>
-      <c r="F26" s="42">
-        <f>$C$1+R26</f>
         <v>7.54131423287365</v>
       </c>
       <c r="G26" s="41">
-        <f t="shared" ref="G26" si="33">$C26-F26</f>
+        <f t="shared" ref="G26" si="36">$C26-F26</f>
         <v>0.97814530020027934</v>
       </c>
       <c r="H26" s="43">
-        <f t="shared" ref="H26" si="34">1-F26/$C26</f>
+        <f t="shared" ref="H26" si="37">1-F26/$C26</f>
         <v>0.11481306958533699</v>
       </c>
       <c r="I26" s="42">
-        <f>$C$1+S26</f>
+        <f t="shared" si="1"/>
         <v>7.70858705452385</v>
       </c>
       <c r="J26" s="41">
-        <f t="shared" ref="J26" si="35">$C26-I26</f>
+        <f t="shared" ref="J26" si="38">$C26-I26</f>
         <v>0.81087247855007938</v>
       </c>
       <c r="K26" s="43">
-        <f t="shared" ref="K26" si="36">1-I26/$C26</f>
+        <f t="shared" ref="K26" si="39">1-I26/$C26</f>
         <v>9.5178863800237656E-2</v>
       </c>
       <c r="L26" s="41">
-        <f>$C$1+T26</f>
+        <f t="shared" si="2"/>
         <v>24.2250606129831</v>
       </c>
       <c r="M26" s="41">
-        <f t="shared" ref="M26" si="37">$C26-L26</f>
+        <f t="shared" ref="M26" si="40">$C26-L26</f>
         <v>-15.705601079909171</v>
       </c>
       <c r="N26" s="44">
-        <f t="shared" ref="N26" si="38">1-L26/$C26</f>
+        <f t="shared" ref="N26" si="41">1-L26/$C26</f>
         <v>-1.8434973508515968</v>
       </c>
       <c r="R26" s="2">
@@ -2529,218 +2532,218 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="77"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="57">
-        <f>AVERAGE(G7:G25)</f>
-        <v>0.41196081948522451</v>
-      </c>
-      <c r="H27" s="60">
-        <f>AVERAGE(H7:H25)</f>
-        <v>4.9952885378620027E-2</v>
-      </c>
-      <c r="I27" s="59"/>
-      <c r="J27" s="57">
-        <f>AVERAGE(J7:J25)</f>
-        <v>-0.10109931823790132</v>
-      </c>
-      <c r="K27" s="60">
-        <f>AVERAGE(K7:K25)</f>
-        <v>-1.4415916314289319E-2</v>
-      </c>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57">
-        <f>AVERAGE(M7:M25)</f>
-        <v>-14.504949219821517</v>
-      </c>
-      <c r="N27" s="61">
-        <f>AVERAGE(N7:N25)</f>
-        <v>-1.8187892721695085</v>
+      <c r="B27" s="63"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="5">
+        <f>AVERAGE(G7:G26)</f>
+        <v>0.44027004352097726</v>
+      </c>
+      <c r="H27" s="59">
+        <f>AVERAGE(H7:H26)</f>
+        <v>5.3195894588955885E-2</v>
+      </c>
+      <c r="I27" s="58"/>
+      <c r="J27" s="5">
+        <f>AVERAGE(J7:J26)</f>
+        <v>-5.5500728398502286E-2</v>
+      </c>
+      <c r="K27" s="59">
+        <f>AVERAGE(K7:K26)</f>
+        <v>-8.9361773085629703E-3</v>
+      </c>
+      <c r="L27" s="56"/>
+      <c r="M27" s="5">
+        <f>AVERAGE(M7:M26)</f>
+        <v>-14.5649818128259</v>
+      </c>
+      <c r="N27" s="60">
+        <f>AVERAGE(N7:N26)</f>
+        <v>-1.820024676103613</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="57">
-        <f>_xlfn.STDEV.P(G7:G25)</f>
-        <v>0.28273430076562733</v>
-      </c>
-      <c r="H28" s="60">
-        <f>_xlfn.STDEV.P(H7:H25)</f>
-        <v>3.4486464816470247E-2</v>
-      </c>
-      <c r="I28" s="59"/>
-      <c r="J28" s="57">
-        <f>_xlfn.STDEV.P(J7:J25)</f>
-        <v>0.49712877843009218</v>
-      </c>
-      <c r="K28" s="60">
-        <f>_xlfn.STDEV.P(K7:K25)</f>
-        <v>6.1912266019145581E-2</v>
-      </c>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57">
-        <f>_xlfn.STDEV.P(M7:M25)</f>
-        <v>4.5775512315746232</v>
-      </c>
-      <c r="N28" s="61">
-        <f>_xlfn.STDEV.P(N7:N25)</f>
-        <v>0.61758273589853174</v>
+      <c r="B28" s="63"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="5">
+        <f>_xlfn.STDEV.P(G7:G26)</f>
+        <v>0.30194135479026241</v>
+      </c>
+      <c r="H28" s="59">
+        <f>_xlfn.STDEV.P(H7:H26)</f>
+        <v>3.6464715942797321E-2</v>
+      </c>
+      <c r="I28" s="58"/>
+      <c r="J28" s="5">
+        <f>_xlfn.STDEV.P(J7:J26)</f>
+        <v>0.52372279665651278</v>
+      </c>
+      <c r="K28" s="59">
+        <f>_xlfn.STDEV.P(K7:K26)</f>
+        <v>6.4899888299525393E-2</v>
+      </c>
+      <c r="L28" s="56"/>
+      <c r="M28" s="5">
+        <f>_xlfn.STDEV.P(M7:M26)</f>
+        <v>4.4693121222442684</v>
+      </c>
+      <c r="N28" s="60">
+        <f>_xlfn.STDEV.P(N7:N26)</f>
+        <v>0.60196927839437742</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="79"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="9"/>
       <c r="F29" s="12"/>
       <c r="G29" s="5" cm="1">
-        <f t="array" ref="G29">AVERAGE(ABS(G7:G25))</f>
-        <v>0.45009862964954683</v>
+        <f t="array" ref="G29">AVERAGE(ABS(G7:G26))</f>
+        <v>0.4765009631770834</v>
       </c>
       <c r="H29" s="11" cm="1">
-        <f t="array" ref="H29">AVERAGE(ABS(H7:H25))</f>
-        <v>5.5063078471308702E-2</v>
+        <f t="array" ref="H29">AVERAGE(ABS(H7:H26))</f>
+        <v>5.8050578027010122E-2</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="5" cm="1">
-        <f t="array" ref="J29">AVERAGE(ABS(J7:J25))</f>
-        <v>0.43011624003369625</v>
+        <f t="array" ref="J29">AVERAGE(ABS(J7:J26))</f>
+        <v>0.44915405195951541</v>
       </c>
       <c r="K29" s="11" cm="1">
-        <f t="array" ref="K29">AVERAGE(ABS(K7:K25))</f>
-        <v>5.3635422707731632E-2</v>
+        <f t="array" ref="K29">AVERAGE(ABS(K7:K26))</f>
+        <v>5.5712594762356925E-2</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="5" cm="1">
-        <f t="array" ref="M29">AVERAGE(ABS(M7:M25))</f>
-        <v>14.504949219821517</v>
+        <f t="array" ref="M29">AVERAGE(ABS(M7:M26))</f>
+        <v>14.5649818128259</v>
       </c>
       <c r="N29" s="6" cm="1">
-        <f t="array" ref="N29">AVERAGE(ABS(N7:N25))</f>
-        <v>1.8187892721695085</v>
+        <f t="array" ref="N29">AVERAGE(ABS(N7:N26))</f>
+        <v>1.820024676103613</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="79"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="9"/>
       <c r="F30" s="12"/>
       <c r="G30" s="5" cm="1">
-        <f t="array" ref="G30">_xlfn.STDEV.P(ABS(G7:G25))</f>
-        <v>0.21693691527254194</v>
+        <f t="array" ref="G30">_xlfn.STDEV.P(ABS(G7:G26))</f>
+        <v>0.24073455307839417</v>
       </c>
       <c r="H30" s="11" cm="1">
-        <f t="array" ref="H30">_xlfn.STDEV.P(ABS(H7:H25))</f>
-        <v>2.5547297360967367E-2</v>
+        <f t="array" ref="H30">_xlfn.STDEV.P(ABS(H7:H26))</f>
+        <v>2.8099983997116659E-2</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="5" cm="1">
-        <f t="array" ref="J30">_xlfn.STDEV.P(ABS(J7:J25))</f>
-        <v>0.26899463665813095</v>
+        <f t="array" ref="J30">_xlfn.STDEV.P(ABS(J7:J26))</f>
+        <v>0.27500279307460185</v>
       </c>
       <c r="K30" s="11" cm="1">
-        <f t="array" ref="K30">_xlfn.STDEV.P(ABS(K7:K25))</f>
-        <v>3.4120210400420861E-2</v>
+        <f t="array" ref="K30">_xlfn.STDEV.P(ABS(K7:K26))</f>
+        <v>3.4466760088908109E-2</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="5" cm="1">
-        <f t="array" ref="M30">_xlfn.STDEV.P(ABS(M7:M25))</f>
-        <v>4.5775512315746232</v>
+        <f t="array" ref="M30">_xlfn.STDEV.P(ABS(M7:M26))</f>
+        <v>4.4693121222442684</v>
       </c>
       <c r="N30" s="6" cm="1">
-        <f t="array" ref="N30">_xlfn.STDEV.P(ABS(N7:N25))</f>
-        <v>0.61758273589853174</v>
+        <f t="array" ref="N30">_xlfn.STDEV.P(ABS(N7:N26))</f>
+        <v>0.60196927839437742</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="79"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="9"/>
       <c r="F31" s="12"/>
       <c r="G31" s="5" cm="1">
-        <f t="array" ref="G31">MAX(ABS(G7:G25))</f>
-        <v>0.86026379277979359</v>
+        <f t="array" ref="G31">MAX(ABS(G7:G26))</f>
+        <v>0.97814530020027934</v>
       </c>
       <c r="H31" s="11" cm="1">
-        <f t="array" ref="H31">MAX(ABS(H7:H25))</f>
-        <v>9.6414497138365474E-2</v>
+        <f t="array" ref="H31">MAX(ABS(H7:H26))</f>
+        <v>0.11481306958533699</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="5" cm="1">
-        <f t="array" ref="J31">MAX(ABS(J7:J25))</f>
+        <f t="array" ref="J31">MAX(ABS(J7:J26))</f>
         <v>0.99582596549177183</v>
       </c>
       <c r="K31" s="11" cm="1">
-        <f t="array" ref="K31">MAX(ABS(K7:K25))</f>
+        <f t="array" ref="K31">MAX(ABS(K7:K26))</f>
         <v>0.12146587134572706</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="5" cm="1">
-        <f t="array" ref="M31">MAX(ABS(M7:M25))</f>
+        <f t="array" ref="M31">MAX(ABS(M7:M26))</f>
         <v>18.685805600612191</v>
       </c>
       <c r="N31" s="6" cm="1">
-        <f t="array" ref="N31">MAX(ABS(N7:N25))</f>
+        <f t="array" ref="N31">MAX(ABS(N7:N26))</f>
         <v>2.3750280784489815</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="81"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="10"/>
       <c r="F32" s="13"/>
       <c r="G32" s="1" cm="1">
-        <f t="array" ref="G32">MIN(ABS(G7:G25))</f>
+        <f t="array" ref="G32">MIN(ABS(G7:G26))</f>
         <v>6.3440099877176692E-2</v>
       </c>
       <c r="H32" s="14" cm="1">
-        <f t="array" ref="H32">MIN(ABS(H7:H25))</f>
+        <f t="array" ref="H32">MIN(ABS(H7:H26))</f>
         <v>8.7667987949821002E-3</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="1" cm="1">
-        <f t="array" ref="J32">MIN(ABS(J7:J25))</f>
+        <f t="array" ref="J32">MIN(ABS(J7:J26))</f>
         <v>4.6795562463364249E-2</v>
       </c>
       <c r="K32" s="14" cm="1">
-        <f t="array" ref="K32">MIN(ABS(K7:K25))</f>
+        <f t="array" ref="K32">MIN(ABS(K7:K26))</f>
         <v>5.2256069758036539E-3</v>
       </c>
       <c r="L32" s="7"/>
       <c r="M32" s="1" cm="1">
-        <f t="array" ref="M32">MIN(ABS(M7:M25))</f>
+        <f t="array" ref="M32">MIN(ABS(M7:M26))</f>
         <v>5.6503386854001842</v>
       </c>
       <c r="N32" s="8" cm="1">
-        <f t="array" ref="N32">MIN(ABS(N7:N25))</f>
+        <f t="array" ref="N32">MIN(ABS(N7:N26))</f>
         <v>0.66400908187689134</v>
       </c>
     </row>
@@ -2762,12 +2765,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
@@ -2776,6 +2773,12 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:E5"/>
     <mergeCell ref="F4:N4"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A28:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
